--- a/Tennis/ATP Tour/Marin Čilić.xlsx
+++ b/Tennis/ATP Tour/Marin Čilić.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -5648,10 +5648,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -15360,7 +15356,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A20 F1:F20"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/ATP Tour/Marin Čilić.xlsx
+++ b/Tennis/ATP Tour/Marin Čilić.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17129" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B00AD490-B84F-41EB-A2A1-80046108358B}"/>
+  <xr:revisionPtr revIDLastSave="17176" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DCBCDA8-70A9-454E-BB51-6C5123BCE920}"/>
   <bookViews>
-    <workbookView xWindow="9465" yWindow="2265" windowWidth="28800" windowHeight="15345" firstSheet="14" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="28800" windowHeight="15285" firstSheet="14" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -33,9 +33,8 @@
     <sheet name="2022" sheetId="28" r:id="rId18"/>
     <sheet name="2023" sheetId="36" r:id="rId19"/>
     <sheet name="2024" sheetId="39" r:id="rId20"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId21"/>
-    <sheet name="Wins-Losses" sheetId="40" r:id="rId22"/>
-    <sheet name="Winning Percentile Range" sheetId="41" r:id="rId23"/>
+    <sheet name="2025" sheetId="42" r:id="rId21"/>
+    <sheet name="Stats" sheetId="1" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4840" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4866" uniqueCount="1029">
   <si>
     <t>ROUND</t>
   </si>
@@ -3134,6 +3133,15 @@
   </si>
   <si>
     <t>DUBAI OPEN</t>
+  </si>
+  <si>
+    <t>6-2 3-6 6-3</t>
+  </si>
+  <si>
+    <t>5-7 6-3 6-4</t>
+  </si>
+  <si>
+    <t>6-4 3-6 6-2</t>
   </si>
 </sst>
 </file>
@@ -3374,7 +3382,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:f>Stats!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3395,10 +3403,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$21</c:f>
+              <c:f>Stats!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2005</c:v>
                 </c:pt>
@@ -3459,15 +3467,18 @@
                 <c:pt idx="19">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$21</c:f>
+              <c:f>Stats!$D$2:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3528,12 +3539,15 @@
                 <c:pt idx="19">
                   <c:v>9</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0008-475D-B165-1EFDF05B96F4}"/>
+              <c16:uniqueId val="{00000000-0A22-4E8A-BCBD-BC8C0DB8F2B0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3542,7 +3556,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:f>Stats!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3563,10 +3577,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$21</c:f>
+              <c:f>Stats!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2005</c:v>
                 </c:pt>
@@ -3627,15 +3641,18 @@
                 <c:pt idx="19">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$21</c:f>
+              <c:f>Stats!$E$2:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3696,12 +3713,15 @@
                 <c:pt idx="19">
                   <c:v>11</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0008-475D-B165-1EFDF05B96F4}"/>
+              <c16:uniqueId val="{00000001-0A22-4E8A-BCBD-BC8C0DB8F2B0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4003,6 +4023,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -4091,7 +4116,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
+              <c:f>Stats!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4140,10 +4165,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$21</c:f>
+              <c:f>Stats!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2005</c:v>
                 </c:pt>
@@ -4204,15 +4229,18 @@
                 <c:pt idx="19">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$21</c:f>
+              <c:f>Stats!$F$2:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>-2</c:v>
                 </c:pt>
@@ -4273,13 +4301,16 @@
                 <c:pt idx="19">
                   <c:v>-0.22222222222222221</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6E0D-4C16-B110-3956C9D210DB}"/>
+              <c16:uniqueId val="{00000001-083E-475D-956C-A54D25EE2644}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4581,6 +4612,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -5670,47 +5706,31 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{4D2A3BDA-542A-485A-BC25-8E18CE1562ED}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0973324C-8636-452F-A7A4-40C36779244F}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C66162D-87CC-4655-259A-61ED390BE28D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B07A3F38-6D81-922A-F4DC-13AD6967E4F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5723,27 +5743,30 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E5CCCF2-6FB1-A6EA-A4AC-3E149A3FDAB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42C75245-CC55-6C9C-76BD-2524442E17AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5751,12 +5774,12 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6066,7 +6089,7 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6188,7 +6211,7 @@
   </sheetPr>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7426,7 +7449,7 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8349,7 +8372,7 @@
   </sheetPr>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9550,7 +9573,7 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10661,7 +10684,7 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11732,7 +11755,7 @@
   </sheetPr>
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12487,7 +12510,7 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12882,7 +12905,7 @@
   </sheetPr>
   <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13830,7 +13853,7 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -14754,7 +14777,7 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -14855,7 +14878,7 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -15491,8 +15514,8 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15882,14 +15905,129 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C7516B2-5403-4689-BE06-FE7B43890224}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>979</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>949</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>914</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>942</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>926</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15940,7 +16078,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="4">
-        <f t="shared" ref="F2:F21" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F22" si="0">(D2-E2)/D2</f>
         <v>-2</v>
       </c>
       <c r="N2" s="4"/>
@@ -16349,57 +16487,78 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="2">
-        <f>SUM(B2:B21)</f>
-        <v>391</v>
-      </c>
-      <c r="C22" s="2">
-        <f>SUM(C2:C21)</f>
-        <v>21</v>
-      </c>
-      <c r="D22" s="2">
-        <f>SUM(D2:D21)</f>
-        <v>625</v>
-      </c>
-      <c r="E22" s="2">
-        <f>SUM(E2:E21)</f>
-        <v>359</v>
-      </c>
-      <c r="F22" s="3">
-        <f t="shared" ref="F22:F23" si="1">(D22-E22)/D22</f>
-        <v>0.42559999999999998</v>
+      <c r="A22">
+        <v>2025</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2">
+        <f>SUM(B2:B22)</f>
+        <v>393</v>
+      </c>
+      <c r="C23" s="2">
+        <f>SUM(C2:C22)</f>
+        <v>21</v>
+      </c>
+      <c r="D23" s="2">
+        <f>SUM(D2:D22)</f>
+        <v>627</v>
+      </c>
+      <c r="E23" s="2">
+        <f>SUM(E2:E22)</f>
+        <v>361</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" ref="F23:F24" si="1">(D23-E23)/D23</f>
+        <v>0.42424242424242425</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="2">
-        <f>AVERAGE(B2:B21)</f>
-        <v>19.55</v>
-      </c>
-      <c r="C23" s="2">
-        <f>AVERAGE(C2:C21)</f>
-        <v>1.05</v>
-      </c>
-      <c r="D23" s="2">
-        <f>AVERAGE(D2:D21)</f>
-        <v>31.25</v>
-      </c>
-      <c r="E23" s="2">
-        <f>AVERAGE(E2:E21)</f>
-        <v>17.95</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="B24" s="2">
+        <f>AVERAGE(B2:B22)</f>
+        <v>18.714285714285715</v>
+      </c>
+      <c r="C24" s="2">
+        <f>AVERAGE(C2:C22)</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <f>AVERAGE(D2:D22)</f>
+        <v>29.857142857142858</v>
+      </c>
+      <c r="E24" s="2">
+        <f>AVERAGE(E2:E22)</f>
+        <v>17.19047619047619</v>
+      </c>
+      <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>0.42560000000000003</v>
+        <v>0.42424242424242425</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F21">
+  <conditionalFormatting sqref="F2:F22">
     <cfRule type="iconSet" priority="12">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -16410,6 +16569,7 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -16420,7 +16580,7 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -17575,7 +17735,7 @@
   </sheetPr>
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -18678,7 +18838,7 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -19830,7 +19990,7 @@
   </sheetPr>
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -20886,7 +21046,7 @@
   </sheetPr>
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -22015,7 +22175,7 @@
   </sheetPr>
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -22995,7 +23155,7 @@
   </sheetPr>
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/ATP Tour/Marin Čilić.xlsx
+++ b/Tennis/ATP Tour/Marin Čilić.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17176" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DCBCDA8-70A9-454E-BB51-6C5123BCE920}"/>
+  <xr:revisionPtr revIDLastSave="17260" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB3583CA-9DD5-427A-8E4B-BE5136B95F43}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3810" windowWidth="28800" windowHeight="15285" firstSheet="14" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="14" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4866" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4922" uniqueCount="1045">
   <si>
     <t>ROUND</t>
   </si>
@@ -3142,6 +3142,54 @@
   </si>
   <si>
     <t>6-4 3-6 6-2</t>
+  </si>
+  <si>
+    <t>Daniel Merida Aguilar (SPAIN)</t>
+  </si>
+  <si>
+    <t>MURCIA CHALLENGER</t>
+  </si>
+  <si>
+    <t>6-7(5) 7-6(4) 6-2</t>
+  </si>
+  <si>
+    <t>GIRONA CHALLENGER</t>
+  </si>
+  <si>
+    <t>Carlos Taberner (SPAIN)</t>
+  </si>
+  <si>
+    <t>Jesper De Jong (NETHERLANDS)</t>
+  </si>
+  <si>
+    <t>Elmer Møller (DENMARK)</t>
+  </si>
+  <si>
+    <t>MENORCA CHALLENGER</t>
+  </si>
+  <si>
+    <t>Ignacio Buse (PERU)</t>
+  </si>
+  <si>
+    <t>3-6 7-5 7-6(7)</t>
+  </si>
+  <si>
+    <t>6-7(6) 6-4 7-6(4)</t>
+  </si>
+  <si>
+    <t>6-2 4-6 6-1</t>
+  </si>
+  <si>
+    <t>MADRID CHALLENGER</t>
+  </si>
+  <si>
+    <t>Kamil Majchrzak (POLAND)</t>
+  </si>
+  <si>
+    <t>Valentin Royer (FRANCE)</t>
+  </si>
+  <si>
+    <t>Vilius Gaubas (LITHUANIA)</t>
   </si>
 </sst>
 </file>
@@ -3540,7 +3588,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3714,7 +3762,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4302,7 +4350,7 @@
                   <c:v>-0.22222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.54545454545454541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15909,20 +15957,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E18" activeCellId="2" sqref="E4:E5 E10:E14 E18:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -16011,6 +16059,206 @@
       </c>
       <c r="F6" t="s">
         <v>1028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>903</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>886</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>878</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="C21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -16027,7 +16275,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16491,20 +16739,20 @@
         <v>2025</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.54545454545454541</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -16513,7 +16761,7 @@
       </c>
       <c r="B23" s="2">
         <f>SUM(B2:B22)</f>
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C23" s="2">
         <f>SUM(C2:C22)</f>
@@ -16521,15 +16769,15 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D2:D22)</f>
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E2:E22)</f>
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" ref="F23:F24" si="1">(D23-E23)/D23</f>
-        <v>0.42424242424242425</v>
+        <v>0.42767295597484278</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -16538,7 +16786,7 @@
       </c>
       <c r="B24" s="2">
         <f>AVERAGE(B2:B22)</f>
-        <v>18.714285714285715</v>
+        <v>18.904761904761905</v>
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(C2:C22)</f>
@@ -16546,15 +16794,15 @@
       </c>
       <c r="D24" s="2">
         <f>AVERAGE(D2:D22)</f>
-        <v>29.857142857142858</v>
+        <v>30.285714285714285</v>
       </c>
       <c r="E24" s="2">
         <f>AVERAGE(E2:E22)</f>
-        <v>17.19047619047619</v>
+        <v>17.333333333333332</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>0.42424242424242425</v>
+        <v>0.42767295597484278</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Marin Čilić.xlsx
+++ b/Tennis/ATP Tour/Marin Čilić.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17260" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB3583CA-9DD5-427A-8E4B-BE5136B95F43}"/>
+  <xr:revisionPtr revIDLastSave="17363" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BE8C768-CF79-4FB4-8BF4-13439F4A8627}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="14" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="2640" yWindow="2640" windowWidth="28800" windowHeight="15345" firstSheet="13" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4922" uniqueCount="1045">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5002" uniqueCount="1068">
   <si>
     <t>ROUND</t>
   </si>
@@ -3190,6 +3190,75 @@
   </si>
   <si>
     <t>Vilius Gaubas (LITHUANIA)</t>
+  </si>
+  <si>
+    <t>4-6 6-1 7-6(4)</t>
+  </si>
+  <si>
+    <t>Matteo Gigante (ITALY)</t>
+  </si>
+  <si>
+    <t>MATHAUSEN CHALLENGER</t>
+  </si>
+  <si>
+    <t>Wu Yibing (CHINA)</t>
+  </si>
+  <si>
+    <t>Pol Martin Tiffon (SPAIN)</t>
+  </si>
+  <si>
+    <t>Lloyd Harris (SOUTH AFRICA)</t>
+  </si>
+  <si>
+    <t>Flavio Cobolli (ITALY)</t>
+  </si>
+  <si>
+    <t>6-2 6-1 6-3</t>
+  </si>
+  <si>
+    <t>6-7(6) 6-4 7-6(7)</t>
+  </si>
+  <si>
+    <t>ILKLEY CHALLENGER</t>
+  </si>
+  <si>
+    <t>Paul Jubb (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>NOTTINGHAM 2 CHALLENGER</t>
+  </si>
+  <si>
+    <t>Hugo Grenier (FRANCE)</t>
+  </si>
+  <si>
+    <t>Tomás Barrios (CHILE)</t>
+  </si>
+  <si>
+    <t>Martín Landaluce (SPAIN)</t>
+  </si>
+  <si>
+    <t>Shintaro Mochizuki (JAPAN)</t>
+  </si>
+  <si>
+    <t>2-6 6-4 3-1 RETIRED</t>
+  </si>
+  <si>
+    <t>6-4 6-4 6-7(4) 7-6(3)</t>
+  </si>
+  <si>
+    <t>6-3 3-6 6-2 6-4</t>
+  </si>
+  <si>
+    <t>6-4 6-3 1-6 6-4</t>
+  </si>
+  <si>
+    <t>6-3 6-4 6-3</t>
+  </si>
+  <si>
+    <t>Raphael Collignon (BELGIUM)</t>
+  </si>
+  <si>
+    <t>Jack Draper (GREAT BRITAIN)</t>
   </si>
 </sst>
 </file>
@@ -3588,7 +3657,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3762,7 +3831,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4350,7 +4419,7 @@
                   <c:v>-0.22222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.54545454545454541</c:v>
+                  <c:v>0.56521739130434778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5831,10 +5900,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -10733,7 +10798,7 @@
   <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C6" sqref="C6:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15563,7 +15628,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15957,20 +16022,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" activeCellId="2" sqref="E4:E5 E10:E14 E18:E21"/>
+      <selection activeCell="E45" activeCellId="9" sqref="E2 E6 E8 E16 E22 E24 E26 E31 E34 E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -16261,7 +16326,290 @@
         <v>135</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>994</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>962</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B33" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="8"/>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="8"/>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="8"/>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="8"/>
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" t="s">
+        <v>976</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="C45" t="s">
+        <v>20</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1062</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -16739,20 +17087,20 @@
         <v>2025</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
+        <v>0.56521739130434778</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -16761,7 +17109,7 @@
       </c>
       <c r="B23" s="2">
         <f>SUM(B2:B22)</f>
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C23" s="2">
         <f>SUM(C2:C22)</f>
@@ -16769,15 +17117,15 @@
       </c>
       <c r="D23" s="2">
         <f>SUM(D2:D22)</f>
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="E23" s="2">
         <f>SUM(E2:E22)</f>
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" ref="F23:F24" si="1">(D23-E23)/D23</f>
-        <v>0.42767295597484278</v>
+        <v>0.43055555555555558</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -16786,7 +17134,7 @@
       </c>
       <c r="B24" s="2">
         <f>AVERAGE(B2:B22)</f>
-        <v>18.904761904761905</v>
+        <v>19.19047619047619</v>
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(C2:C22)</f>
@@ -16794,15 +17142,15 @@
       </c>
       <c r="D24" s="2">
         <f>AVERAGE(D2:D22)</f>
-        <v>30.285714285714285</v>
+        <v>30.857142857142858</v>
       </c>
       <c r="E24" s="2">
         <f>AVERAGE(E2:E22)</f>
-        <v>17.333333333333332</v>
+        <v>17.571428571428573</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>0.42767295597484278</v>
+        <v>0.43055555555555552</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Marin Čilić.xlsx
+++ b/Tennis/ATP Tour/Marin Čilić.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17363" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BE8C768-CF79-4FB4-8BF4-13439F4A8627}"/>
+  <xr:revisionPtr revIDLastSave="17389" documentId="13_ncr:1_{F6469CD4-71D5-4FC5-9E84-085662C9327F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4D1F0E4-ACFB-4C7D-AFFA-DE6D22C66526}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2640" yWindow="2640" windowWidth="28800" windowHeight="15345" firstSheet="13" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="13" activeTab="21" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2005" sheetId="11" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5002" uniqueCount="1068">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5016" uniqueCount="1069">
   <si>
     <t>ROUND</t>
   </si>
@@ -3259,6 +3259,9 @@
   </si>
   <si>
     <t>Jack Draper (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>6-4 6-1 6-4</t>
   </si>
 </sst>
 </file>
@@ -3831,7 +3834,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>10</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4419,7 +4422,7 @@
                   <c:v>-0.22222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.56521739130434778</c:v>
+                  <c:v>0.43478260869565216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16022,10 +16025,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E45" activeCellId="9" sqref="E2 E6 E8 E16 E22 E24 E26 E31 E34 E45"/>
+      <selection activeCell="E50" activeCellId="12" sqref="E2 E6 E8 E16 E22 E24 E26 E31 E34 E45 E47 E49 E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16606,6 +16609,55 @@
       </c>
       <c r="F45" t="s">
         <v>1062</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" t="s">
+        <v>935</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>930</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="D50" t="s">
+        <v>954</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -17087,7 +17139,7 @@
         <v>2025</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -17096,11 +17148,11 @@
         <v>23</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>0.56521739130434778</v>
+        <v>0.43478260869565216</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -17109,7 +17161,7 @@
       </c>
       <c r="B23" s="2">
         <f>SUM(B2:B22)</f>
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C23" s="2">
         <f>SUM(C2:C22)</f>
@@ -17121,11 +17173,11 @@
       </c>
       <c r="E23" s="2">
         <f>SUM(E2:E22)</f>
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" ref="F23:F24" si="1">(D23-E23)/D23</f>
-        <v>0.43055555555555558</v>
+        <v>0.42592592592592593</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -17134,7 +17186,7 @@
       </c>
       <c r="B24" s="2">
         <f>AVERAGE(B2:B22)</f>
-        <v>19.19047619047619</v>
+        <v>19.285714285714285</v>
       </c>
       <c r="C24" s="2">
         <f>AVERAGE(C2:C22)</f>
@@ -17146,11 +17198,11 @@
       </c>
       <c r="E24" s="2">
         <f>AVERAGE(E2:E22)</f>
-        <v>17.571428571428573</v>
+        <v>17.714285714285715</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="1"/>
-        <v>0.43055555555555552</v>
+        <v>0.42592592592592593</v>
       </c>
     </row>
   </sheetData>
